--- a/Assets/Resources/Stage0Wave.xlsx
+++ b/Assets/Resources/Stage0Wave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pimm\Desktop\UnityProject\GSG\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Unity\MutantDefence\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF6158D-9B72-41A5-9677-465474A5A815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE8FEED-6B4E-47C9-920D-4690E6AA6601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>

--- a/Assets/Resources/Stage0Wave.xlsx
+++ b/Assets/Resources/Stage0Wave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Unity\MutantDefence\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\MutantDefence\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE8FEED-6B4E-47C9-920D-4690E6AA6601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BB771E-79D7-4DF4-854F-9648EDFFB540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -399,16 +399,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -419,47 +419,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
